--- a/BTL/Uploads/Excels/Khachhang.xlsx
+++ b/BTL/Uploads/Excels/Khachhang.xlsx
@@ -24,15 +24,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Ha Noi</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Nguyễn Văn Long</t>
   </si>
   <si>
     <t>KH1</t>
   </si>
   <si>
-    <t>Nguyen Van R</t>
+    <t>Lại Thu Thủy</t>
+  </si>
+  <si>
+    <t>KH2</t>
+  </si>
+  <si>
+    <t>HCM</t>
+  </si>
+  <si>
+    <t>Bùi Thu Phương</t>
+  </si>
+  <si>
+    <t>KH3</t>
+  </si>
+  <si>
+    <t>Đà Nẵng</t>
+  </si>
+  <si>
+    <t>Hà Nội</t>
   </si>
 </sst>
 </file>
@@ -68,9 +86,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -351,27 +368,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>98765432133</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>98881277217</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>30300339393</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/BTL/Uploads/Excels/Khachhang.xlsx
+++ b/BTL/Uploads/Excels/Khachhang.xlsx
@@ -24,33 +24,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Nguyễn Văn Long</t>
+    <t>Ha Noi</t>
   </si>
   <si>
-    <t>KH1</t>
+    <t>KH4</t>
   </si>
   <si>
-    <t>Lại Thu Thủy</t>
+    <t>1234567890</t>
   </si>
   <si>
-    <t>KH2</t>
-  </si>
-  <si>
-    <t>HCM</t>
-  </si>
-  <si>
-    <t>Bùi Thu Phương</t>
-  </si>
-  <si>
-    <t>KH3</t>
-  </si>
-  <si>
-    <t>Đà Nẵng</t>
-  </si>
-  <si>
-    <t>Hà Nội</t>
+    <t>Nguyễn Hoàng Long</t>
   </si>
 </sst>
 </file>
@@ -86,8 +71,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -368,57 +354,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1" s="1" t="s">
+        <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1">
-        <v>98765432133</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>98881277217</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>30300339393</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
